--- a/templates/dataplant/3ASY01_RNASeq.xlsx
+++ b/templates/dataplant/3ASY01_RNASeq.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5B9723-FC1D-4BAE-8066-AB3DB41DE93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE62BD52-C841-48DE-B7B4-74D2AD7ECEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY01_RNASeq" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="176">
   <si>
     <t>Source Name</t>
   </si>
@@ -748,6 +748,9 @@
   <si>
     <t>Authors Role Term Source REF</t>
   </si>
+  <si>
+    <t>Raw Data File</t>
+  </si>
 </sst>
 </file>
 
@@ -756,7 +759,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,12 +787,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1114,7 +1111,7 @@
     <tableColumn id="40" xr3:uid="{2AFADBEA-D2CA-4459-8C9D-3DC3FA4E226B}" name="Parameter [Raw data file format]" dataDxfId="3"/>
     <tableColumn id="41" xr3:uid="{CC4AA291-442E-477D-A16A-36D7D1CB0B50}" name="Term Source REF (NFDI4PSO:0000021)" dataDxfId="2"/>
     <tableColumn id="42" xr3:uid="{E3E37F73-63D0-4BEE-A350-CE87A85AB65F}" name="Term Accession Number (NFDI4PSO:0000021)" dataDxfId="1"/>
-    <tableColumn id="43" xr3:uid="{2365BEFE-DF52-4424-991C-DFFA0DF1C8E9}" name="Data File Name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{47A34C5D-CBA3-4D67-95F8-EF106ACCAA38}" name="Raw Data File" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1418,7 +1415,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="631" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="512" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="643" row="3">
@@ -1451,55 +1448,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.140625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="57" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="34" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="41.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="44.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="45.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="33" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
@@ -1636,7 +1635,7 @@
         <v>40</v>
       </c>
       <c r="AS1" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
@@ -1745,7 +1744,7 @@
       <c r="AR2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AS2" s="1"/>
+      <c r="AS2" s="14"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1825,7 +1824,7 @@
       <c r="AR3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AS3" s="1"/>
+      <c r="AS3" s="14"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1890,7 +1889,7 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
+      <c r="AS4" s="14"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
@@ -1931,7 +1930,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
+      <c r="AS5" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1946,7 +1945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCFAEC7-2CE0-4201-B33B-152C0680AE1F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/templates/dataplant/3ASY01_RNASeq.xlsx
+++ b/templates/dataplant/3ASY01_RNASeq.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE62BD52-C841-48DE-B7B4-74D2AD7ECEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FE9CB1-CFC4-F44E-A538-3EED18ED1E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32600" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY01_RNASeq" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
-    <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,76 +50,157 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9BDCD857-0DD1-430B-81A9-59C269F09A66}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=9a78e1cc-5e8e-441b-9b7e-eb41cf93d574</t>
+        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{BA1407FF-1AE2-4F10-BB9A-CE1EA4574C1B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{CFF29937-1F15-4587-9907-A16ECB06ACCE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{1B1ECE66-3701-49EC-B5A3-539F78E15555}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{102B2B78-2611-433C-9D0A-944782E9A547}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{4F2A56C7-F993-4F56-920E-B56655DBF461}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A21277F1-8784-42A1-B932-D4F422009DB7}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{1423E286-502D-468D-9CC0-906670F651F2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{18F1699E-690B-4D1C-91D1-AE306CE5FCAF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -128,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
   <si>
     <t>Source Name</t>
   </si>
@@ -253,9 +333,6 @@
     <t>Term Accession Number (NFDI4PSO:0000021)</t>
   </si>
   <si>
-    <t>Data File Name</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -364,287 +441,16 @@
     <t>Dominik</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>TermSourceRef</t>
-  </si>
-  <si>
-    <t>Ontology</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>Content type (validation)</t>
-  </si>
-  <si>
-    <t>Notes during templating</t>
-  </si>
-  <si>
-    <t>Target term</t>
-  </si>
-  <si>
-    <t>Instruction</t>
-  </si>
-  <si>
-    <t>Requirement (m/o/n)</t>
-  </si>
-  <si>
-    <t>Value (cv/s/d)</t>
-  </si>
-  <si>
-    <t>Additional information</t>
-  </si>
-  <si>
-    <t>Review comments</t>
-  </si>
-  <si>
-    <t>Sample Name</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000035</t>
-  </si>
-  <si>
     <t>NFDI4PSO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000035</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000036</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000036</t>
-  </si>
-  <si>
     <t>user-specific</t>
   </si>
   <si>
-    <t>NFDI4PSO:0000037</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000037</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000038</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000038</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000039</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000039</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000016</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000016</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000082</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000082</t>
   </si>
   <si>
-    <t>NFDI4PSO:0000040</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000040</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000017</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000017</t>
-  </si>
-  <si>
     <t>Parameter [Base-calling Software Version]</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000018</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000018</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000019</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000019</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000020</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000020</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000021</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000021</t>
-  </si>
-  <si>
-    <t>Unable to find a parent class that covers both / only single vs. paired
-http://purl.obolibrary.org/obo/OBI_0600047
-http://purl.obolibrary.org/obo/NCIT_C150423</t>
-  </si>
-  <si>
-    <t>Unit: microgram</t>
-  </si>
-  <si>
-    <t>PROTOCOLS_library strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Sequence Read Archive-specific field that describes the sequencing technique for this library. Please select one of the following terms:
-RNA-Seq
-miRNA-Seq
-ncRNA-Seq
-RNA-Seq (size fractionation)
-RNA-Seq (CAGE)
-RNA-Seq (RACE)
-ssRNA-seq
-ChIP-Seq
-MNase-Seq
-MBD-Seq
-MRE-Seq
-Bisulfite-Seq
-Bisulfite-Seq (reduced representation)
-MeDIP-Seq
-DNase-Hypersensitivity
-Tn-Seq
-FAIRE-seq
-SELEX
-RIP-Seq
-ATAC-seq
-ChIA-PET
-Hi-C
-OTHER: specify
-</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>cv</t>
-  </si>
-  <si>
-    <t>PROTOCOLS_library construction protocol</t>
-  </si>
-  <si>
-    <t>Describe the library construction protocol.</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>RAW FILES_single or paired-end</t>
-  </si>
-  <si>
-    <t>Enter "single" (usual case) or "paired-end".</t>
-  </si>
-  <si>
-    <t>How to handle deviations from instructer´s manual?</t>
-  </si>
-  <si>
-    <t>RAW FILES_instrument model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include one of the following models:
-Illumina Genome Analyzer IIx
-Illumina HiSeq 1000
-Illumina HiSeq 1500
-Illumina HiSeq 2000
-Illumina HiSeq 2500
-Illumina HiSeq 3000
-Illumina HiSeq 4000
-Illumina NextSeq 500
-Illumina NextSeq 550
-Illumina HiSeq X Ten
-Illumina HiSeq X Five
-Illumina NovaSeq 6000
-Illumina MiSeq
-Illumina HiScanSQ
-Illumina MiniSeq
-Illumina iSeq 100
-BGISEQ-500
-DNBSEQ-G400
-DNBSEQ-T7
-DNBSEQ-G50
-Ion Torrent PGM
-Ion Torrent Proton
-Ion Torrent S5
-Ion Torrent S5 XL
-PacBio RS
-PacBio RS II
-Sequel
-Sequel II
-AB SOLiD System 2.0
-AB SOLiD System 3.0
-AB SOLiD 3 Plus System
-AB SOLiD 4 System
-AB SOLiD 4hq System
-AB SOLiD PI System
-AB 5500 Genetic Analyzer
-AB 5500xl Genetic Analyzer
-AB 5500xl-W Genetic Analysis System
-454 GS
-454 GS 20
-454 GS FLX
-454 GS FLX+
-454 GS Junior
-454 GS FLX Titanium
-Complete Genomics
-Helicos HeliScope
-GridION
-MinION
-PromethION
-</t>
-  </si>
-  <si>
-    <t>DATA PROCESSING PIPELINE_data processing step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
-Base-calling software, version, parameters;
-Data filtering steps;
-Read alignment software, version, parameters;
-Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
-etc...
-</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>at least some info is required, but not all terms</t>
-  </si>
-  <si>
-    <t>RAW FILES_file type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include one of the following types:
-fastq
-bam
-Illumina_native_qseq
-Illumina_native
-SOLiD_native_csfasta
-SOLiD_native_qual
-sff
-454_native_seq
-454_native_qual
-Helicos_native
-srf
-PacBio_HDF5
-</t>
-  </si>
-  <si>
-    <t>RAW FILES_file name</t>
   </si>
   <si>
     <t>RNA-Seq strategy</t>
@@ -821,7 +627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -899,27 +705,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD2D2D2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD2D2D2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD2D2D2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD2D2D2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,12 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1448,60 +1233,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="45.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.1640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="41.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="45.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="33" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1598,16 +1383,16 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="14" t="s">
-        <v>111</v>
+      <c r="AG1" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="AH1" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="AI1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AK1" t="s">
@@ -1635,163 +1420,163 @@
         <v>40</v>
       </c>
       <c r="AS1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>155</v>
+        <v>78</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS2" s="14"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="AS2" s="12"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="R3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -1807,62 +1592,62 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS3" s="14"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="AS3" s="12"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>152</v>
-      </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -1878,38 +1663,38 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="14"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AS4" s="12"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -1930,7 +1715,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
-      <c r="AS5" s="14"/>
+      <c r="AS5" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1945,229 +1730,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCFAEC7-2CE0-4201-B33B-152C0680AE1F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2175,581 +1960,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/templates/dataplant/3ASY01_RNASeq.xlsx
+++ b/templates/dataplant/3ASY01_RNASeq.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FE9CB1-CFC4-F44E-A538-3EED18ED1E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98672B1-5AA4-EC4F-9692-F1828EE6FFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32600" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32600" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="3ASY01_RNASeq" sheetId="1" r:id="rId1"/>
+    <sheet name="rnaseq_assay" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -405,9 +403,6 @@
     <t>9a78e1cc-5e8e-441b-9b7e-eb41cf93d574</t>
   </si>
   <si>
-    <t>RNA-Seq Assay</t>
-  </si>
-  <si>
     <t>Template to describe preparation and measurement of RNA-Seq.</t>
   </si>
   <si>
@@ -556,6 +551,9 @@
   </si>
   <si>
     <t>Raw Data File</t>
+  </si>
+  <si>
+    <t>RNASeq Assay</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1384,13 +1382,13 @@
         <v>31</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI1" t="s">
         <v>99</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>100</v>
       </c>
       <c r="AJ1" s="12" t="s">
         <v>32</v>
@@ -1420,163 +1418,163 @@
         <v>40</v>
       </c>
       <c r="AS1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
         <v>104</v>
       </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>105</v>
-      </c>
       <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" t="s">
         <v>89</v>
       </c>
-      <c r="L2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>90</v>
-      </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="AH2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AS2" s="12"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -1592,62 +1590,62 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AS3" s="12"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -1663,13 +1661,13 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
@@ -1678,23 +1676,23 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -1730,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCFAEC7-2CE0-4201-B33B-152C0680AE1F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1753,7 +1751,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1761,7 +1759,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1769,7 +1767,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1777,7 +1775,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1785,7 +1783,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1799,7 +1797,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1828,16 +1826,16 @@
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1870,10 +1868,10 @@
         <v>56</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1881,10 +1879,10 @@
         <v>57</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1931,28 +1929,28 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>

--- a/templates/dataplant/3ASY01_RNASeq.xlsx
+++ b/templates/dataplant/3ASY01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98672B1-5AA4-EC4F-9692-F1828EE6FFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A70C71A-5A36-CF4F-BFD2-BF38C4DAA90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32600" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32600" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_assay" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t>Source Name</t>
   </si>
@@ -407,9 +407,6 @@
   </si>
   <si>
     <t>annotationTableSpicySloth85</t>
-  </si>
-  <si>
-    <t>GEO</t>
   </si>
   <si>
     <t>Transcriptomics</t>
@@ -1231,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -1382,13 +1379,13 @@
         <v>31</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" t="s">
         <v>98</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>99</v>
       </c>
       <c r="AJ1" s="12" t="s">
         <v>32</v>
@@ -1418,163 +1415,163 @@
         <v>40</v>
       </c>
       <c r="AS1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
         <v>103</v>
       </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
       <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
         <v>88</v>
       </c>
-      <c r="L2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>89</v>
-      </c>
       <c r="R2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="AH2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="12"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -1590,62 +1587,62 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS3" s="12"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -1661,13 +1658,13 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
@@ -1676,23 +1673,23 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -1728,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCFAEC7-2CE0-4201-B33B-152C0680AE1F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1751,7 +1748,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1759,7 +1756,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1775,7 +1772,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1791,26 +1788,36 @@
         <v>47</v>
       </c>
       <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -1826,16 +1833,16 @@
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1862,98 +1869,124 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/templates/dataplant/3ASY01_RNASeq.xlsx
+++ b/templates/dataplant/3ASY01_RNASeq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A70C71A-5A36-CF4F-BFD2-BF38C4DAA90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C8BDFF-BAFB-394B-B590-283C8065E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32600" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,9 +529,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000023</t>
   </si>
   <si>
-    <t>1.1.7</t>
-  </si>
-  <si>
     <t>DataPLANT</t>
   </si>
   <si>
@@ -551,6 +548,9 @@
   </si>
   <si>
     <t>RNASeq Assay</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,6 +739,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,6 +753,16 @@
   <dxfs count="26">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
@@ -783,15 +799,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
@@ -869,29 +876,29 @@
     <tableColumn id="21" xr3:uid="{C2221C5A-A581-47B0-99E1-8D8101F1F64D}" name="Parameter [Library RNA amount]" dataDxfId="25"/>
     <tableColumn id="22" xr3:uid="{406988CC-530E-4763-91F9-71C83D968873}" name="Unit" dataDxfId="24"/>
     <tableColumn id="23" xr3:uid="{05065244-1A82-4F1F-B9B7-0A69AAE33604}" name="Term Source REF (NFDI4PSO:0000016)" dataDxfId="23"/>
-    <tableColumn id="24" xr3:uid="{6CD94A2D-03CE-49DA-96F8-3F68DB81454E}" name="Term Accession Number (NFDI4PSO:0000016)" dataDxfId="22"/>
-    <tableColumn id="25" xr3:uid="{541AA4B9-BAFF-430B-8B9A-F2C021B53404}" name="Parameter [rRNA depletion]" dataDxfId="21"/>
-    <tableColumn id="26" xr3:uid="{2CE133DA-0A67-40F6-A2D3-5E44ECC584FE}" name="Term Source REF (NFDI4PSO:0000082)" dataDxfId="20"/>
-    <tableColumn id="27" xr3:uid="{7E102C7E-3D48-4AE3-B973-C93CF504F0EE}" name="Term Accession Number (NFDI4PSO:0000082)" dataDxfId="19"/>
-    <tableColumn id="28" xr3:uid="{9C794364-C911-4D05-A9A8-DFDE330A09C2}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="18"/>
-    <tableColumn id="29" xr3:uid="{AE615784-B0E6-47BF-AE01-023BF5AA206E}" name="Term Source REF (NFDI4PSO:0000040)" dataDxfId="17"/>
-    <tableColumn id="30" xr3:uid="{BAD8DB17-65F5-45BD-A7AA-6B024B5CE069}" name="Term Accession Number (NFDI4PSO:0000040)" dataDxfId="16"/>
-    <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [Base-calling Software]" dataDxfId="15"/>
-    <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (NFDI4PSO:0000017)" dataDxfId="14"/>
-    <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (NFDI4PSO:0000017)" dataDxfId="13"/>
-    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [Base-calling Software Version]" dataDxfId="12"/>
-    <tableColumn id="51" xr3:uid="{9873F5F5-4534-4DF9-B18C-69858B28E021}" name="Term Source REF (NFDI4PSO:0000018)" dataDxfId="11"/>
-    <tableColumn id="52" xr3:uid="{E50595D3-C218-4183-8EC4-0B001A8697BD}" name="Term Accession Number (NFDI4PSO:0000018)" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{228D9D5B-B4BB-432B-8766-144F2F7EE00C}" name="Parameter [Base-calling Software Parameters]" dataDxfId="9"/>
-    <tableColumn id="35" xr3:uid="{EE5985B1-BFA8-4880-80F1-BBC5E373AEA4}" name="Term Source REF (NFDI4PSO:0000019)" dataDxfId="8"/>
-    <tableColumn id="36" xr3:uid="{5957DE4F-4101-47BD-A1D2-8A8C3805387F}" name="Term Accession Number (NFDI4PSO:0000019)" dataDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{4A320B98-D8B0-4EDC-B8A1-FC383E287715}" name="Parameter [Library strand]" dataDxfId="6"/>
-    <tableColumn id="38" xr3:uid="{7F1459B7-C0FC-4A4F-8689-0ECFAC987DAE}" name="Term Source REF (NFDI4PSO:0000020)" dataDxfId="5"/>
-    <tableColumn id="39" xr3:uid="{962B06C3-A58B-4E1F-BB1E-C42413A846FB}" name="Term Accession Number (NFDI4PSO:0000020)" dataDxfId="4"/>
-    <tableColumn id="40" xr3:uid="{2AFADBEA-D2CA-4459-8C9D-3DC3FA4E226B}" name="Parameter [Raw data file format]" dataDxfId="3"/>
-    <tableColumn id="41" xr3:uid="{CC4AA291-442E-477D-A16A-36D7D1CB0B50}" name="Term Source REF (NFDI4PSO:0000021)" dataDxfId="2"/>
-    <tableColumn id="42" xr3:uid="{E3E37F73-63D0-4BEE-A350-CE87A85AB65F}" name="Term Accession Number (NFDI4PSO:0000021)" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{47A34C5D-CBA3-4D67-95F8-EF106ACCAA38}" name="Raw Data File" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{6CD94A2D-03CE-49DA-96F8-3F68DB81454E}" name="Term Accession Number (NFDI4PSO:0000016)" dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{541AA4B9-BAFF-430B-8B9A-F2C021B53404}" name="Parameter [rRNA depletion]" dataDxfId="0"/>
+    <tableColumn id="26" xr3:uid="{2CE133DA-0A67-40F6-A2D3-5E44ECC584FE}" name="Term Source REF (NFDI4PSO:0000082)" dataDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{7E102C7E-3D48-4AE3-B973-C93CF504F0EE}" name="Term Accession Number (NFDI4PSO:0000082)" dataDxfId="22"/>
+    <tableColumn id="28" xr3:uid="{9C794364-C911-4D05-A9A8-DFDE330A09C2}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="21"/>
+    <tableColumn id="29" xr3:uid="{AE615784-B0E6-47BF-AE01-023BF5AA206E}" name="Term Source REF (NFDI4PSO:0000040)" dataDxfId="20"/>
+    <tableColumn id="30" xr3:uid="{BAD8DB17-65F5-45BD-A7AA-6B024B5CE069}" name="Term Accession Number (NFDI4PSO:0000040)" dataDxfId="19"/>
+    <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [Base-calling Software]" dataDxfId="18"/>
+    <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (NFDI4PSO:0000017)" dataDxfId="17"/>
+    <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (NFDI4PSO:0000017)" dataDxfId="16"/>
+    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [Base-calling Software Version]" dataDxfId="15"/>
+    <tableColumn id="51" xr3:uid="{9873F5F5-4534-4DF9-B18C-69858B28E021}" name="Term Source REF (NFDI4PSO:0000018)" dataDxfId="14"/>
+    <tableColumn id="52" xr3:uid="{E50595D3-C218-4183-8EC4-0B001A8697BD}" name="Term Accession Number (NFDI4PSO:0000018)" dataDxfId="13"/>
+    <tableColumn id="34" xr3:uid="{228D9D5B-B4BB-432B-8766-144F2F7EE00C}" name="Parameter [Base-calling Software Parameters]" dataDxfId="12"/>
+    <tableColumn id="35" xr3:uid="{EE5985B1-BFA8-4880-80F1-BBC5E373AEA4}" name="Term Source REF (NFDI4PSO:0000019)" dataDxfId="11"/>
+    <tableColumn id="36" xr3:uid="{5957DE4F-4101-47BD-A1D2-8A8C3805387F}" name="Term Accession Number (NFDI4PSO:0000019)" dataDxfId="10"/>
+    <tableColumn id="37" xr3:uid="{4A320B98-D8B0-4EDC-B8A1-FC383E287715}" name="Parameter [Library strand]" dataDxfId="9"/>
+    <tableColumn id="38" xr3:uid="{7F1459B7-C0FC-4A4F-8689-0ECFAC987DAE}" name="Term Source REF (NFDI4PSO:0000020)" dataDxfId="8"/>
+    <tableColumn id="39" xr3:uid="{962B06C3-A58B-4E1F-BB1E-C42413A846FB}" name="Term Accession Number (NFDI4PSO:0000020)" dataDxfId="7"/>
+    <tableColumn id="40" xr3:uid="{2AFADBEA-D2CA-4459-8C9D-3DC3FA4E226B}" name="Parameter [Raw data file format]" dataDxfId="6"/>
+    <tableColumn id="41" xr3:uid="{CC4AA291-442E-477D-A16A-36D7D1CB0B50}" name="Term Source REF (NFDI4PSO:0000021)" dataDxfId="5"/>
+    <tableColumn id="42" xr3:uid="{E3E37F73-63D0-4BEE-A350-CE87A85AB65F}" name="Term Accession Number (NFDI4PSO:0000021)" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{47A34C5D-CBA3-4D67-95F8-EF106ACCAA38}" name="Raw Data File" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1226,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AS23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1264,7 @@
     <col min="21" max="21" width="7.1640625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="57.5" bestFit="1" customWidth="1"/>
@@ -1351,7 +1358,7 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="13" t="s">
         <v>23</v>
       </c>
       <c r="Y1" t="s">
@@ -1415,7 +1422,7 @@
         <v>40</v>
       </c>
       <c r="AS1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
@@ -1474,7 +1481,7 @@
       <c r="W2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="1"/>
+      <c r="X2" s="14"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
@@ -1573,7 +1580,7 @@
       <c r="W3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X3" s="1"/>
+      <c r="X3" s="14"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -1644,7 +1651,7 @@
       <c r="W4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X4" s="1"/>
+      <c r="X4" s="14"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -1691,7 +1698,7 @@
       <c r="W5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X5" s="1"/>
+      <c r="X5" s="14"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -1712,6 +1719,9 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="12"/>
     </row>
+    <row r="23" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA23" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1726,7 +1736,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1748,7 +1758,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1756,7 +1766,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1772,7 +1782,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1954,7 +1964,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1963,7 +1973,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1972,7 +1982,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1981,7 +1991,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>

--- a/templates/dataplant/3ASY01_RNASeq.xlsx
+++ b/templates/dataplant/3ASY01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C8BDFF-BAFB-394B-B590-283C8065E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B7CE7-4C42-4B4F-97E1-D01AAE273FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32600" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32600" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_assay" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
   <si>
     <t>Source Name</t>
   </si>
@@ -433,6 +433,9 @@
     <t>Dominik</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>NFDI4PSO</t>
   </si>
   <si>
@@ -551,6 +554,30 @@
   </si>
   <si>
     <t>1.2.0</t>
+  </si>
+  <si>
+    <t>Protocol Type</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Protocol REF</t>
+  </si>
+  <si>
+    <t>assay protocol</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000177</t>
+  </si>
+  <si>
+    <t>rnaseq-protocol.txt</t>
   </si>
 </sst>
 </file>
@@ -750,7 +777,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{3A68927A-4D0F-438E-A11A-69BC80D82D4C}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -851,10 +887,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}" name="annotationTableSpicySloth85" displayName="annotationTableSpicySloth85" ref="A1:AS5" totalsRowShown="0">
-  <autoFilter ref="A1:AS5" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}"/>
-  <tableColumns count="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}" name="annotationTableSpicySloth85" displayName="annotationTableSpicySloth85" ref="A1:AW5" totalsRowShown="0">
+  <autoFilter ref="A1:AW5" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}"/>
+  <tableColumns count="49">
     <tableColumn id="1" xr3:uid="{DDD81922-E978-4A5A-A247-30D8EC830850}" name="Source Name"/>
+    <tableColumn id="43" xr3:uid="{768F8812-2FF8-BC45-A763-37A7C39FFFBD}" name="Protocol Type"/>
+    <tableColumn id="44" xr3:uid="{7E5FEC67-B394-8B4E-B8CD-FDE2B90DCADF}" name="Term Source REF (DPBO:1000161)" dataDxfId="2"/>
+    <tableColumn id="45" xr3:uid="{5D71751B-97B7-C64F-9BB3-E614E9764E91}" name="Term Accession Number (DPBO:1000161)" dataDxfId="1"/>
+    <tableColumn id="46" xr3:uid="{D6D740BA-B648-C04B-8B98-F9B3A3C8584F}" name="Protocol REF" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{447A413B-B655-4E5D-BC02-D7557A9E4C62}" name="Parameter [Library strategy]"/>
     <tableColumn id="4" xr3:uid="{9BBFE835-D0D7-4C6D-A1A5-68598432EDA2}" name="Term Source REF (NFDI4PSO:0000035)"/>
     <tableColumn id="5" xr3:uid="{657A280A-234C-47CD-8764-45FAAED69AFE}" name="Term Accession Number (NFDI4PSO:0000035)"/>
@@ -873,32 +913,32 @@
     <tableColumn id="18" xr3:uid="{89B6BCBB-C5AD-4373-B0EA-160F3BBCA468}" name="Parameter [Adapter sequence]"/>
     <tableColumn id="19" xr3:uid="{7C720ACC-EDDD-4B8C-B7F4-F21BDC9B0FFF}" name="Term Source REF (NFDI4PSO:0000039)"/>
     <tableColumn id="20" xr3:uid="{743BF0E4-CDEB-4353-988F-B91A1D110B43}" name="Term Accession Number (NFDI4PSO:0000039)"/>
-    <tableColumn id="21" xr3:uid="{C2221C5A-A581-47B0-99E1-8D8101F1F64D}" name="Parameter [Library RNA amount]" dataDxfId="25"/>
-    <tableColumn id="22" xr3:uid="{406988CC-530E-4763-91F9-71C83D968873}" name="Unit" dataDxfId="24"/>
-    <tableColumn id="23" xr3:uid="{05065244-1A82-4F1F-B9B7-0A69AAE33604}" name="Term Source REF (NFDI4PSO:0000016)" dataDxfId="23"/>
-    <tableColumn id="24" xr3:uid="{6CD94A2D-03CE-49DA-96F8-3F68DB81454E}" name="Term Accession Number (NFDI4PSO:0000016)" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{541AA4B9-BAFF-430B-8B9A-F2C021B53404}" name="Parameter [rRNA depletion]" dataDxfId="0"/>
-    <tableColumn id="26" xr3:uid="{2CE133DA-0A67-40F6-A2D3-5E44ECC584FE}" name="Term Source REF (NFDI4PSO:0000082)" dataDxfId="1"/>
-    <tableColumn id="27" xr3:uid="{7E102C7E-3D48-4AE3-B973-C93CF504F0EE}" name="Term Accession Number (NFDI4PSO:0000082)" dataDxfId="22"/>
-    <tableColumn id="28" xr3:uid="{9C794364-C911-4D05-A9A8-DFDE330A09C2}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="21"/>
-    <tableColumn id="29" xr3:uid="{AE615784-B0E6-47BF-AE01-023BF5AA206E}" name="Term Source REF (NFDI4PSO:0000040)" dataDxfId="20"/>
-    <tableColumn id="30" xr3:uid="{BAD8DB17-65F5-45BD-A7AA-6B024B5CE069}" name="Term Accession Number (NFDI4PSO:0000040)" dataDxfId="19"/>
-    <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [Base-calling Software]" dataDxfId="18"/>
-    <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (NFDI4PSO:0000017)" dataDxfId="17"/>
-    <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (NFDI4PSO:0000017)" dataDxfId="16"/>
-    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [Base-calling Software Version]" dataDxfId="15"/>
-    <tableColumn id="51" xr3:uid="{9873F5F5-4534-4DF9-B18C-69858B28E021}" name="Term Source REF (NFDI4PSO:0000018)" dataDxfId="14"/>
-    <tableColumn id="52" xr3:uid="{E50595D3-C218-4183-8EC4-0B001A8697BD}" name="Term Accession Number (NFDI4PSO:0000018)" dataDxfId="13"/>
-    <tableColumn id="34" xr3:uid="{228D9D5B-B4BB-432B-8766-144F2F7EE00C}" name="Parameter [Base-calling Software Parameters]" dataDxfId="12"/>
-    <tableColumn id="35" xr3:uid="{EE5985B1-BFA8-4880-80F1-BBC5E373AEA4}" name="Term Source REF (NFDI4PSO:0000019)" dataDxfId="11"/>
-    <tableColumn id="36" xr3:uid="{5957DE4F-4101-47BD-A1D2-8A8C3805387F}" name="Term Accession Number (NFDI4PSO:0000019)" dataDxfId="10"/>
-    <tableColumn id="37" xr3:uid="{4A320B98-D8B0-4EDC-B8A1-FC383E287715}" name="Parameter [Library strand]" dataDxfId="9"/>
-    <tableColumn id="38" xr3:uid="{7F1459B7-C0FC-4A4F-8689-0ECFAC987DAE}" name="Term Source REF (NFDI4PSO:0000020)" dataDxfId="8"/>
-    <tableColumn id="39" xr3:uid="{962B06C3-A58B-4E1F-BB1E-C42413A846FB}" name="Term Accession Number (NFDI4PSO:0000020)" dataDxfId="7"/>
-    <tableColumn id="40" xr3:uid="{2AFADBEA-D2CA-4459-8C9D-3DC3FA4E226B}" name="Parameter [Raw data file format]" dataDxfId="6"/>
-    <tableColumn id="41" xr3:uid="{CC4AA291-442E-477D-A16A-36D7D1CB0B50}" name="Term Source REF (NFDI4PSO:0000021)" dataDxfId="5"/>
-    <tableColumn id="42" xr3:uid="{E3E37F73-63D0-4BEE-A350-CE87A85AB65F}" name="Term Accession Number (NFDI4PSO:0000021)" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{47A34C5D-CBA3-4D67-95F8-EF106ACCAA38}" name="Raw Data File" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{C2221C5A-A581-47B0-99E1-8D8101F1F64D}" name="Parameter [Library RNA amount]" dataDxfId="28"/>
+    <tableColumn id="22" xr3:uid="{406988CC-530E-4763-91F9-71C83D968873}" name="Unit" dataDxfId="27"/>
+    <tableColumn id="23" xr3:uid="{05065244-1A82-4F1F-B9B7-0A69AAE33604}" name="Term Source REF (NFDI4PSO:0000016)" dataDxfId="26"/>
+    <tableColumn id="24" xr3:uid="{6CD94A2D-03CE-49DA-96F8-3F68DB81454E}" name="Term Accession Number (NFDI4PSO:0000016)" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{541AA4B9-BAFF-430B-8B9A-F2C021B53404}" name="Parameter [rRNA depletion]" dataDxfId="3"/>
+    <tableColumn id="26" xr3:uid="{2CE133DA-0A67-40F6-A2D3-5E44ECC584FE}" name="Term Source REF (NFDI4PSO:0000082)" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{7E102C7E-3D48-4AE3-B973-C93CF504F0EE}" name="Term Accession Number (NFDI4PSO:0000082)" dataDxfId="25"/>
+    <tableColumn id="28" xr3:uid="{9C794364-C911-4D05-A9A8-DFDE330A09C2}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="24"/>
+    <tableColumn id="29" xr3:uid="{AE615784-B0E6-47BF-AE01-023BF5AA206E}" name="Term Source REF (NFDI4PSO:0000040)" dataDxfId="23"/>
+    <tableColumn id="30" xr3:uid="{BAD8DB17-65F5-45BD-A7AA-6B024B5CE069}" name="Term Accession Number (NFDI4PSO:0000040)" dataDxfId="22"/>
+    <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [Base-calling Software]" dataDxfId="21"/>
+    <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (NFDI4PSO:0000017)" dataDxfId="20"/>
+    <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (NFDI4PSO:0000017)" dataDxfId="19"/>
+    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [Base-calling Software Version]" dataDxfId="18"/>
+    <tableColumn id="51" xr3:uid="{9873F5F5-4534-4DF9-B18C-69858B28E021}" name="Term Source REF (NFDI4PSO:0000018)" dataDxfId="17"/>
+    <tableColumn id="52" xr3:uid="{E50595D3-C218-4183-8EC4-0B001A8697BD}" name="Term Accession Number (NFDI4PSO:0000018)" dataDxfId="16"/>
+    <tableColumn id="34" xr3:uid="{228D9D5B-B4BB-432B-8766-144F2F7EE00C}" name="Parameter [Base-calling Software Parameters]" dataDxfId="15"/>
+    <tableColumn id="35" xr3:uid="{EE5985B1-BFA8-4880-80F1-BBC5E373AEA4}" name="Term Source REF (NFDI4PSO:0000019)" dataDxfId="14"/>
+    <tableColumn id="36" xr3:uid="{5957DE4F-4101-47BD-A1D2-8A8C3805387F}" name="Term Accession Number (NFDI4PSO:0000019)" dataDxfId="13"/>
+    <tableColumn id="37" xr3:uid="{4A320B98-D8B0-4EDC-B8A1-FC383E287715}" name="Parameter [Library strand]" dataDxfId="12"/>
+    <tableColumn id="38" xr3:uid="{7F1459B7-C0FC-4A4F-8689-0ECFAC987DAE}" name="Term Source REF (NFDI4PSO:0000020)" dataDxfId="11"/>
+    <tableColumn id="39" xr3:uid="{962B06C3-A58B-4E1F-BB1E-C42413A846FB}" name="Term Accession Number (NFDI4PSO:0000020)" dataDxfId="10"/>
+    <tableColumn id="40" xr3:uid="{2AFADBEA-D2CA-4459-8C9D-3DC3FA4E226B}" name="Parameter [Raw data file format]" dataDxfId="9"/>
+    <tableColumn id="41" xr3:uid="{CC4AA291-442E-477D-A16A-36D7D1CB0B50}" name="Term Source REF (NFDI4PSO:0000021)" dataDxfId="8"/>
+    <tableColumn id="42" xr3:uid="{E3E37F73-63D0-4BEE-A350-CE87A85AB65F}" name="Term Accession Number (NFDI4PSO:0000021)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{47A34C5D-CBA3-4D67-95F8-EF106ACCAA38}" name="Raw Data File" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1202,7 +1242,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="512" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="643" row="3">
@@ -1233,491 +1273,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS23"/>
+  <dimension ref="A1:AW23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="31.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="28" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="28" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="28.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="29.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="25.83203125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="50.6640625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="41.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="30.1640625" style="12" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="45.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="36.6640625" style="12" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="33" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="24.33203125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="29.1640625" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="0" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="13.83203125" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AK1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL1" t="s">
         <v>98</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AM1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
+      <c r="AW1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
         <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" t="s">
-        <v>76</v>
       </c>
       <c r="M2" t="s">
         <v>76</v>
       </c>
+      <c r="N2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" t="s">
+        <v>77</v>
+      </c>
       <c r="Q2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AF2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="AI2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AM2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
       <c r="AQ2" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS2" s="12"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW2" s="12"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB3" s="14"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
-      <c r="AK3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="12"/>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
       <c r="AQ3" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS3" s="12"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW3" s="12"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
+      <c r="D4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V4" s="1" t="s">
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB4" s="14"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-      <c r="AK4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="12"/>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="12"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
         <v>76</v>
       </c>
-      <c r="AO4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="12"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB5" s="14"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AK5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="12"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
+      <c r="AN5" s="12"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
-      <c r="AS5" s="12"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="12"/>
     </row>
     <row r="23" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA23" s="13"/>
@@ -1735,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCFAEC7-2CE0-4201-B33B-152C0680AE1F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1758,7 +1863,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1766,7 +1871,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1782,7 +1887,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1964,7 +2069,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1973,7 +2078,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1982,7 +2087,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1991,7 +2096,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>

--- a/templates/dataplant/3ASY01_RNASeq.xlsx
+++ b/templates/dataplant/3ASY01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B7CE7-4C42-4B4F-97E1-D01AAE273FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E298D8-A256-4F4B-8CFD-70B9AA99A82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32600" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32600" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_assay" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
   <si>
     <t>Source Name</t>
   </si>
@@ -415,12 +415,6 @@
     <t>mRNASeq</t>
   </si>
   <si>
-    <t>RNASeq</t>
-  </si>
-  <si>
-    <t>Assay</t>
-  </si>
-  <si>
     <t>Jabeen</t>
   </si>
   <si>
@@ -578,6 +572,18 @@
   </si>
   <si>
     <t>rnaseq-protocol.txt</t>
+  </si>
+  <si>
+    <t>RNA-seq</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1337,16 +1343,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>117</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" t="s">
-        <v>119</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1442,13 +1448,13 @@
         <v>31</v>
       </c>
       <c r="AK1" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AL1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AM1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN1" s="12" t="s">
         <v>32</v>
@@ -1478,186 +1484,186 @@
         <v>40</v>
       </c>
       <c r="AW1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="AL2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN2" s="12"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AW2" s="12"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="AB3" s="14"/>
       <c r="AC3" s="1"/>
@@ -1675,72 +1681,72 @@
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AW3" s="12"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="AB4" s="14"/>
       <c r="AC4" s="1"/>
@@ -1758,13 +1764,13 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
@@ -1774,32 +1780,32 @@
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
         <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="AB5" s="14"/>
       <c r="AC5" s="1"/>
@@ -1840,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCFAEC7-2CE0-4201-B33B-152C0680AE1F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1863,7 +1869,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1871,7 +1877,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1887,7 +1893,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1943,7 +1949,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -1954,29 +1960,41 @@
         <v>68</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -1992,10 +2010,10 @@
         <v>56</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -2005,10 +2023,10 @@
         <v>57</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2069,7 +2087,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2078,7 +2096,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2087,7 +2105,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2096,7 +2114,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>

--- a/templates/dataplant/3ASY01_RNASeq.xlsx
+++ b/templates/dataplant/3ASY01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E298D8-A256-4F4B-8CFD-70B9AA99A82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF72FA0E-317E-8649-BAC4-ACE103A8C78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32600" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25000" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_assay" sheetId="1" r:id="rId1"/>
@@ -206,131 +206,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
   <si>
     <t>Source Name</t>
   </si>
   <si>
-    <t>Parameter [Library strategy]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000035)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000035)</t>
-  </si>
-  <si>
-    <t>Parameter [Library Selection]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000036)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000036)</t>
-  </si>
-  <si>
-    <t>Parameter [Library layout]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000015)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000015)</t>
-  </si>
-  <si>
-    <t>Parameter [Library preparation kit]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000037)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000037)</t>
-  </si>
-  <si>
-    <t>Parameter [Library preparation kit version]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000038)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000038)</t>
-  </si>
-  <si>
-    <t>Parameter [Adapter sequence]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000039)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000039)</t>
-  </si>
-  <si>
-    <t>Parameter [Library RNA amount]</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000016)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000016)</t>
-  </si>
-  <si>
-    <t>Parameter [rRNA depletion]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000082)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000082)</t>
-  </si>
-  <si>
-    <t>Parameter [Next generation sequencing instrument model]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000040)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000040)</t>
-  </si>
-  <si>
-    <t>Parameter [Base-calling Software]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000017)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000017)</t>
-  </si>
-  <si>
-    <t>Parameter [Base-calling Software Parameters]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000019)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000019)</t>
-  </si>
-  <si>
-    <t>Parameter [Library strand]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000020)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000020)</t>
-  </si>
-  <si>
     <t>Parameter [Raw data file format]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000021)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000021)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -430,18 +316,9 @@
     <t/>
   </si>
   <si>
-    <t>NFDI4PSO</t>
-  </si>
-  <si>
     <t>user-specific</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000082</t>
-  </si>
-  <si>
-    <t>Parameter [Base-calling Software Version]</t>
-  </si>
-  <si>
     <t>RNA-Seq strategy</t>
   </si>
   <si>
@@ -466,18 +343,6 @@
     <t>Single-end</t>
   </si>
   <si>
-    <t>Illumina TrueSeq</t>
-  </si>
-  <si>
-    <t>ACTTGA</t>
-  </si>
-  <si>
-    <t>TAGCTT</t>
-  </si>
-  <si>
-    <t>CGTACG</t>
-  </si>
-  <si>
     <t>HiSeq 2000</t>
   </si>
   <si>
@@ -496,36 +361,15 @@
     <t>Forward</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000018)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000018)</t>
-  </si>
-  <si>
     <t>.fastq</t>
   </si>
   <si>
     <t>.ab1</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000009</t>
-  </si>
-  <si>
     <t>paired-end</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000087</t>
-  </si>
-  <si>
-    <t>microgram</t>
-  </si>
-  <si>
-    <t>UO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
-  </si>
-  <si>
     <t>DataPLANT</t>
   </si>
   <si>
@@ -584,14 +428,138 @@
   </si>
   <si>
     <t>NCIT</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000035)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000035)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000036)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000036)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000015)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000015)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000016)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000016)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000040)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000040)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000017)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000017)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000018)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000018)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000019)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000019)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000020)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000020)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000021)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000021)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000087</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000009</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000082</t>
+  </si>
+  <si>
+    <t>Parameter [library strategy]</t>
+  </si>
+  <si>
+    <t>Parameter [library selection]</t>
+  </si>
+  <si>
+    <t>Parameter [library layout]</t>
+  </si>
+  <si>
+    <t>Parameter [library preparation kit]</t>
+  </si>
+  <si>
+    <t>Parameter [library preparation kit version]</t>
+  </si>
+  <si>
+    <t>Parameter [adapter sequence]</t>
+  </si>
+  <si>
+    <t>Term Source REF (GENEPIO:0000085)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (GENEPIO:0000085)</t>
+  </si>
+  <si>
+    <t>Term Source REF (GENEPIO:0000149)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (GENEPIO:0000149)</t>
+  </si>
+  <si>
+    <t>Term Source REF (GENEPIO:0000083)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (GENEPIO:0000083)</t>
+  </si>
+  <si>
+    <t>Parameter [library RNA amount]</t>
+  </si>
+  <si>
+    <t>Parameter [next generation sequencing instrument model]</t>
+  </si>
+  <si>
+    <t>Parameter [base-calling software]</t>
+  </si>
+  <si>
+    <t>Parameter [base-calling software version]</t>
+  </si>
+  <si>
+    <t>Parameter [base-calling software parameters]</t>
+  </si>
+  <si>
+    <t>Parameter [library strand]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00\ &quot;nanogram&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -775,15 +743,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{3A68927A-4D0F-438E-A11A-69BC80D82D4C}"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="34">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -791,11 +757,46 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;nanogram&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
@@ -822,37 +823,16 @@
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
@@ -893,58 +873,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}" name="annotationTableSpicySloth85" displayName="annotationTableSpicySloth85" ref="A1:AW5" totalsRowShown="0">
-  <autoFilter ref="A1:AW5" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}"/>
-  <tableColumns count="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}" name="annotationTableSpicySloth85" displayName="annotationTableSpicySloth85" ref="A1:AT5" totalsRowShown="0">
+  <autoFilter ref="A1:AT5" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}"/>
+  <tableColumns count="46">
     <tableColumn id="1" xr3:uid="{DDD81922-E978-4A5A-A247-30D8EC830850}" name="Source Name"/>
     <tableColumn id="43" xr3:uid="{768F8812-2FF8-BC45-A763-37A7C39FFFBD}" name="Protocol Type"/>
-    <tableColumn id="44" xr3:uid="{7E5FEC67-B394-8B4E-B8CD-FDE2B90DCADF}" name="Term Source REF (DPBO:1000161)" dataDxfId="2"/>
-    <tableColumn id="45" xr3:uid="{5D71751B-97B7-C64F-9BB3-E614E9764E91}" name="Term Accession Number (DPBO:1000161)" dataDxfId="1"/>
-    <tableColumn id="46" xr3:uid="{D6D740BA-B648-C04B-8B98-F9B3A3C8584F}" name="Protocol REF" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{447A413B-B655-4E5D-BC02-D7557A9E4C62}" name="Parameter [Library strategy]"/>
-    <tableColumn id="4" xr3:uid="{9BBFE835-D0D7-4C6D-A1A5-68598432EDA2}" name="Term Source REF (NFDI4PSO:0000035)"/>
-    <tableColumn id="5" xr3:uid="{657A280A-234C-47CD-8764-45FAAED69AFE}" name="Term Accession Number (NFDI4PSO:0000035)"/>
-    <tableColumn id="6" xr3:uid="{3F2A5080-FF54-4D4F-B86F-747ADB5DAABC}" name="Parameter [Library Selection]"/>
-    <tableColumn id="7" xr3:uid="{C733CE5F-F254-4696-96F8-F1CAFC523A1E}" name="Term Source REF (NFDI4PSO:0000036)"/>
-    <tableColumn id="8" xr3:uid="{7D14DF31-E061-4A32-A8DB-7DCE3F6836AD}" name="Term Accession Number (NFDI4PSO:0000036)"/>
-    <tableColumn id="9" xr3:uid="{07459255-B7B5-4FCA-A752-F0B30CAF3DB4}" name="Parameter [Library layout]"/>
-    <tableColumn id="10" xr3:uid="{850436C7-EF51-438E-BD88-B6C3F87D03C4}" name="Term Source REF (NFDI4PSO:0000015)"/>
-    <tableColumn id="11" xr3:uid="{FAFC50DF-492A-4289-ABF2-9AE1FFD89B22}" name="Term Accession Number (NFDI4PSO:0000015)"/>
-    <tableColumn id="12" xr3:uid="{150C2988-8D46-4AC4-813D-CE7E31383FC6}" name="Parameter [Library preparation kit]"/>
-    <tableColumn id="13" xr3:uid="{E9932180-7769-4F23-9CBA-681C4C61BB01}" name="Term Source REF (NFDI4PSO:0000037)"/>
-    <tableColumn id="14" xr3:uid="{57BBB7A8-9936-446A-A02D-E31B58B8FA05}" name="Term Accession Number (NFDI4PSO:0000037)"/>
-    <tableColumn id="15" xr3:uid="{41A166AA-D923-4452-A9E7-A13EB5360CDB}" name="Parameter [Library preparation kit version]"/>
-    <tableColumn id="16" xr3:uid="{19F3D155-0308-4910-9A24-2BE5C9DA74F9}" name="Term Source REF (NFDI4PSO:0000038)"/>
-    <tableColumn id="17" xr3:uid="{84612877-7F61-40D9-BE91-927AF20C931F}" name="Term Accession Number (NFDI4PSO:0000038)"/>
-    <tableColumn id="18" xr3:uid="{89B6BCBB-C5AD-4373-B0EA-160F3BBCA468}" name="Parameter [Adapter sequence]"/>
-    <tableColumn id="19" xr3:uid="{7C720ACC-EDDD-4B8C-B7F4-F21BDC9B0FFF}" name="Term Source REF (NFDI4PSO:0000039)"/>
-    <tableColumn id="20" xr3:uid="{743BF0E4-CDEB-4353-988F-B91A1D110B43}" name="Term Accession Number (NFDI4PSO:0000039)"/>
-    <tableColumn id="21" xr3:uid="{C2221C5A-A581-47B0-99E1-8D8101F1F64D}" name="Parameter [Library RNA amount]" dataDxfId="28"/>
-    <tableColumn id="22" xr3:uid="{406988CC-530E-4763-91F9-71C83D968873}" name="Unit" dataDxfId="27"/>
-    <tableColumn id="23" xr3:uid="{05065244-1A82-4F1F-B9B7-0A69AAE33604}" name="Term Source REF (NFDI4PSO:0000016)" dataDxfId="26"/>
-    <tableColumn id="24" xr3:uid="{6CD94A2D-03CE-49DA-96F8-3F68DB81454E}" name="Term Accession Number (NFDI4PSO:0000016)" dataDxfId="5"/>
-    <tableColumn id="25" xr3:uid="{541AA4B9-BAFF-430B-8B9A-F2C021B53404}" name="Parameter [rRNA depletion]" dataDxfId="3"/>
-    <tableColumn id="26" xr3:uid="{2CE133DA-0A67-40F6-A2D3-5E44ECC584FE}" name="Term Source REF (NFDI4PSO:0000082)" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{7E102C7E-3D48-4AE3-B973-C93CF504F0EE}" name="Term Accession Number (NFDI4PSO:0000082)" dataDxfId="25"/>
-    <tableColumn id="28" xr3:uid="{9C794364-C911-4D05-A9A8-DFDE330A09C2}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="24"/>
-    <tableColumn id="29" xr3:uid="{AE615784-B0E6-47BF-AE01-023BF5AA206E}" name="Term Source REF (NFDI4PSO:0000040)" dataDxfId="23"/>
-    <tableColumn id="30" xr3:uid="{BAD8DB17-65F5-45BD-A7AA-6B024B5CE069}" name="Term Accession Number (NFDI4PSO:0000040)" dataDxfId="22"/>
-    <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [Base-calling Software]" dataDxfId="21"/>
-    <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (NFDI4PSO:0000017)" dataDxfId="20"/>
-    <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (NFDI4PSO:0000017)" dataDxfId="19"/>
-    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [Base-calling Software Version]" dataDxfId="18"/>
-    <tableColumn id="51" xr3:uid="{9873F5F5-4534-4DF9-B18C-69858B28E021}" name="Term Source REF (NFDI4PSO:0000018)" dataDxfId="17"/>
-    <tableColumn id="52" xr3:uid="{E50595D3-C218-4183-8EC4-0B001A8697BD}" name="Term Accession Number (NFDI4PSO:0000018)" dataDxfId="16"/>
-    <tableColumn id="34" xr3:uid="{228D9D5B-B4BB-432B-8766-144F2F7EE00C}" name="Parameter [Base-calling Software Parameters]" dataDxfId="15"/>
-    <tableColumn id="35" xr3:uid="{EE5985B1-BFA8-4880-80F1-BBC5E373AEA4}" name="Term Source REF (NFDI4PSO:0000019)" dataDxfId="14"/>
-    <tableColumn id="36" xr3:uid="{5957DE4F-4101-47BD-A1D2-8A8C3805387F}" name="Term Accession Number (NFDI4PSO:0000019)" dataDxfId="13"/>
-    <tableColumn id="37" xr3:uid="{4A320B98-D8B0-4EDC-B8A1-FC383E287715}" name="Parameter [Library strand]" dataDxfId="12"/>
-    <tableColumn id="38" xr3:uid="{7F1459B7-C0FC-4A4F-8689-0ECFAC987DAE}" name="Term Source REF (NFDI4PSO:0000020)" dataDxfId="11"/>
-    <tableColumn id="39" xr3:uid="{962B06C3-A58B-4E1F-BB1E-C42413A846FB}" name="Term Accession Number (NFDI4PSO:0000020)" dataDxfId="10"/>
-    <tableColumn id="40" xr3:uid="{2AFADBEA-D2CA-4459-8C9D-3DC3FA4E226B}" name="Parameter [Raw data file format]" dataDxfId="9"/>
-    <tableColumn id="41" xr3:uid="{CC4AA291-442E-477D-A16A-36D7D1CB0B50}" name="Term Source REF (NFDI4PSO:0000021)" dataDxfId="8"/>
-    <tableColumn id="42" xr3:uid="{E3E37F73-63D0-4BEE-A350-CE87A85AB65F}" name="Term Accession Number (NFDI4PSO:0000021)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{47A34C5D-CBA3-4D67-95F8-EF106ACCAA38}" name="Raw Data File" dataDxfId="6"/>
+    <tableColumn id="44" xr3:uid="{7E5FEC67-B394-8B4E-B8CD-FDE2B90DCADF}" name="Term Source REF (DPBO:1000161)" dataDxfId="14"/>
+    <tableColumn id="45" xr3:uid="{5D71751B-97B7-C64F-9BB3-E614E9764E91}" name="Term Accession Number (DPBO:1000161)" dataDxfId="13"/>
+    <tableColumn id="46" xr3:uid="{D6D740BA-B648-C04B-8B98-F9B3A3C8584F}" name="Protocol REF" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{447A413B-B655-4E5D-BC02-D7557A9E4C62}" name="Parameter [library strategy]"/>
+    <tableColumn id="4" xr3:uid="{9BBFE835-D0D7-4C6D-A1A5-68598432EDA2}" name="Term Source REF (DPBO:0000035)"/>
+    <tableColumn id="5" xr3:uid="{657A280A-234C-47CD-8764-45FAAED69AFE}" name="Term Accession Number (DPBO:0000035)"/>
+    <tableColumn id="6" xr3:uid="{3F2A5080-FF54-4D4F-B86F-747ADB5DAABC}" name="Parameter [library selection]"/>
+    <tableColumn id="7" xr3:uid="{C733CE5F-F254-4696-96F8-F1CAFC523A1E}" name="Term Source REF (DPBO:0000036)"/>
+    <tableColumn id="8" xr3:uid="{7D14DF31-E061-4A32-A8DB-7DCE3F6836AD}" name="Term Accession Number (DPBO:0000036)"/>
+    <tableColumn id="9" xr3:uid="{07459255-B7B5-4FCA-A752-F0B30CAF3DB4}" name="Parameter [library layout]"/>
+    <tableColumn id="10" xr3:uid="{850436C7-EF51-438E-BD88-B6C3F87D03C4}" name="Term Source REF (DPBO:0000015)"/>
+    <tableColumn id="11" xr3:uid="{FAFC50DF-492A-4289-ABF2-9AE1FFD89B22}" name="Term Accession Number (DPBO:0000015)"/>
+    <tableColumn id="47" xr3:uid="{920D070C-17EA-F447-BF76-CF830545AC7E}" name="Parameter [library preparation kit]"/>
+    <tableColumn id="48" xr3:uid="{B9AEAD85-975B-144B-B161-C0D9630261E7}" name="Term Source REF (GENEPIO:0000085)" dataDxfId="11"/>
+    <tableColumn id="49" xr3:uid="{31339FBA-31FC-4440-BF51-2BBBE2FB801F}" name="Term Accession Number (GENEPIO:0000085)" dataDxfId="10"/>
+    <tableColumn id="53" xr3:uid="{596B8FEA-F56E-4645-AB6B-2974E91BFED7}" name="Parameter [library preparation kit version]" dataDxfId="9"/>
+    <tableColumn id="54" xr3:uid="{D06F8A0C-F6C5-D44E-935A-9B0D952ACFD4}" name="Term Source REF (GENEPIO:0000149)" dataDxfId="8"/>
+    <tableColumn id="55" xr3:uid="{9816CF2C-1A41-284F-BA62-C599F9DA9A2F}" name="Term Accession Number (GENEPIO:0000149)" dataDxfId="7"/>
+    <tableColumn id="56" xr3:uid="{3E2585AB-F6D2-5E45-9CD6-D691A73668B5}" name="Parameter [adapter sequence]" dataDxfId="6"/>
+    <tableColumn id="57" xr3:uid="{FF5E6A02-E9B3-2A44-94CE-E624DC8B1CD6}" name="Term Source REF (GENEPIO:0000083)" dataDxfId="5"/>
+    <tableColumn id="58" xr3:uid="{65B8113C-FF30-F749-9700-81A10583D721}" name="Term Accession Number (GENEPIO:0000083)" dataDxfId="4"/>
+    <tableColumn id="59" xr3:uid="{DB9284E0-51FE-E14D-AFC3-5BD86181DAC5}" name="Parameter [library RNA amount]" dataDxfId="3"/>
+    <tableColumn id="60" xr3:uid="{131C1113-732D-2246-BD34-B02A003A2AD3}" name="Unit" dataDxfId="2"/>
+    <tableColumn id="61" xr3:uid="{ECC03E79-ECEC-4F4C-99C8-0007FFF00391}" name="Term Source REF (DPBO:0000016)" dataDxfId="1"/>
+    <tableColumn id="62" xr3:uid="{DCB2E447-920B-024B-9B3A-796E8594FE82}" name="Term Accession Number (DPBO:0000016)" dataDxfId="0"/>
+    <tableColumn id="28" xr3:uid="{9C794364-C911-4D05-A9A8-DFDE330A09C2}" name="Parameter [next generation sequencing instrument model]" dataDxfId="33"/>
+    <tableColumn id="29" xr3:uid="{AE615784-B0E6-47BF-AE01-023BF5AA206E}" name="Term Source REF (DPBO:0000040)" dataDxfId="32"/>
+    <tableColumn id="30" xr3:uid="{BAD8DB17-65F5-45BD-A7AA-6B024B5CE069}" name="Term Accession Number (DPBO:0000040)" dataDxfId="31"/>
+    <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [base-calling software]" dataDxfId="30"/>
+    <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (DPBO:0000017)" dataDxfId="29"/>
+    <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (DPBO:0000017)" dataDxfId="28"/>
+    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [base-calling software version]" dataDxfId="27"/>
+    <tableColumn id="51" xr3:uid="{9873F5F5-4534-4DF9-B18C-69858B28E021}" name="Term Source REF (DPBO:0000018)" dataDxfId="26"/>
+    <tableColumn id="52" xr3:uid="{E50595D3-C218-4183-8EC4-0B001A8697BD}" name="Term Accession Number (DPBO:0000018)" dataDxfId="25"/>
+    <tableColumn id="34" xr3:uid="{228D9D5B-B4BB-432B-8766-144F2F7EE00C}" name="Parameter [base-calling software parameters]" dataDxfId="24"/>
+    <tableColumn id="35" xr3:uid="{EE5985B1-BFA8-4880-80F1-BBC5E373AEA4}" name="Term Source REF (DPBO:0000019)" dataDxfId="23"/>
+    <tableColumn id="36" xr3:uid="{5957DE4F-4101-47BD-A1D2-8A8C3805387F}" name="Term Accession Number (DPBO:0000019)" dataDxfId="22"/>
+    <tableColumn id="37" xr3:uid="{4A320B98-D8B0-4EDC-B8A1-FC383E287715}" name="Parameter [library strand]" dataDxfId="21"/>
+    <tableColumn id="38" xr3:uid="{7F1459B7-C0FC-4A4F-8689-0ECFAC987DAE}" name="Term Source REF (DPBO:0000020)" dataDxfId="20"/>
+    <tableColumn id="39" xr3:uid="{962B06C3-A58B-4E1F-BB1E-C42413A846FB}" name="Term Accession Number (DPBO:0000020)" dataDxfId="19"/>
+    <tableColumn id="40" xr3:uid="{2AFADBEA-D2CA-4459-8C9D-3DC3FA4E226B}" name="Parameter [Raw data file format]" dataDxfId="18"/>
+    <tableColumn id="41" xr3:uid="{CC4AA291-442E-477D-A16A-36D7D1CB0B50}" name="Term Source REF (DPBO:0000021)" dataDxfId="17"/>
+    <tableColumn id="42" xr3:uid="{E3E37F73-63D0-4BEE-A350-CE87A85AB65F}" name="Term Accession Number (DPBO:0000021)" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{47A34C5D-CBA3-4D67-95F8-EF106ACCAA38}" name="Raw Data File" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1279,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW23"/>
+  <dimension ref="A1:AV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1292,543 +1269,586 @@
     <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="31.1640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="28" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="29.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="29.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="25.83203125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="38.5" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.33203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="38.5" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="28.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" customWidth="1"/>
+    <col min="26" max="26" width="30" customWidth="1"/>
+    <col min="27" max="27" width="36.1640625" customWidth="1"/>
+    <col min="28" max="28" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="50.6640625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.1640625" style="12" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="39.6640625" style="12" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="36.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.33203125" style="12" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="39.6640625" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.1640625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="24.33203125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.83203125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="29.1640625" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="0" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.1640625" hidden="1" customWidth="1"/>
     <col min="48" max="48" width="13.83203125" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="AO1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>35</v>
-      </c>
       <c r="AR1" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="AS1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="AT1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV1" t="s">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="AW1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AE2" s="1" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AQ2" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW2" s="12"/>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="AT2" s="12"/>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" t="s">
-        <v>88</v>
-      </c>
-      <c r="V3" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB3" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
+      <c r="AH3" s="12"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
+      <c r="AN3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AQ3" s="1" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW3" s="12"/>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="AT3" s="12"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V4" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB4" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
+      <c r="AH4" s="12"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="12"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="12"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AN4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="12"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB5" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
+      <c r="AH5" s="12"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="12"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
-      <c r="AN5" s="12"/>
+      <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="12"/>
+      <c r="AT5" s="12"/>
     </row>
     <row r="23" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA23" s="13"/>
@@ -1846,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCFAEC7-2CE0-4201-B33B-152C0680AE1F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1858,55 +1878,55 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1915,7 +1935,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1924,7 +1944,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1933,7 +1953,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1942,7 +1962,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1951,54 +1971,54 @@
     </row>
     <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2007,33 +2027,33 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2042,7 +2062,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2051,7 +2071,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2060,7 +2080,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2069,7 +2089,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2078,7 +2098,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2087,7 +2107,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2096,7 +2116,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2105,7 +2125,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2114,7 +2134,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>

--- a/templates/dataplant/3ASY01_RNASeq.xlsx
+++ b/templates/dataplant/3ASY01_RNASeq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF72FA0E-317E-8649-BAC4-ACE103A8C78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D2E7A6-AA06-4D0C-A7A0-A00D1ED4B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25000" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_assay" sheetId="1" r:id="rId1"/>
@@ -48,157 +48,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9BDCD857-0DD1-430B-81A9-59C269F09A66}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=9a78e1cc-5e8e-441b-9b7e-eb41cf93d574</t>
-        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{BA1407FF-1AE2-4F10-BB9A-CE1EA4574C1B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{CFF29937-1F15-4587-9907-A16ECB06ACCE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{1B1ECE66-3701-49EC-B5A3-539F78E15555}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{102B2B78-2611-433C-9D0A-944782E9A547}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{4F2A56C7-F993-4F56-920E-B56655DBF461}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A21277F1-8784-42A1-B932-D4F422009DB7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{1423E286-502D-468D-9CC0-906670F651F2}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{18F1699E-690B-4D1C-91D1-AE306CE5FCAF}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -206,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="117">
   <si>
     <t>Source Name</t>
   </si>
@@ -551,6 +470,12 @@
   </si>
   <si>
     <t>Parameter [library strand]</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000096</t>
   </si>
 </sst>
 </file>
@@ -751,12 +676,69 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0.00\ &quot;nanogram&quot;"/>
     </dxf>
     <dxf>
@@ -794,63 +776,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -878,9 +803,9 @@
   <tableColumns count="46">
     <tableColumn id="1" xr3:uid="{DDD81922-E978-4A5A-A247-30D8EC830850}" name="Source Name"/>
     <tableColumn id="43" xr3:uid="{768F8812-2FF8-BC45-A763-37A7C39FFFBD}" name="Protocol Type"/>
-    <tableColumn id="44" xr3:uid="{7E5FEC67-B394-8B4E-B8CD-FDE2B90DCADF}" name="Term Source REF (DPBO:1000161)" dataDxfId="14"/>
-    <tableColumn id="45" xr3:uid="{5D71751B-97B7-C64F-9BB3-E614E9764E91}" name="Term Accession Number (DPBO:1000161)" dataDxfId="13"/>
-    <tableColumn id="46" xr3:uid="{D6D740BA-B648-C04B-8B98-F9B3A3C8584F}" name="Protocol REF" dataDxfId="12"/>
+    <tableColumn id="44" xr3:uid="{7E5FEC67-B394-8B4E-B8CD-FDE2B90DCADF}" name="Term Source REF (DPBO:1000161)" dataDxfId="33"/>
+    <tableColumn id="45" xr3:uid="{5D71751B-97B7-C64F-9BB3-E614E9764E91}" name="Term Accession Number (DPBO:1000161)" dataDxfId="32"/>
+    <tableColumn id="46" xr3:uid="{D6D740BA-B648-C04B-8B98-F9B3A3C8584F}" name="Protocol REF" dataDxfId="31"/>
     <tableColumn id="3" xr3:uid="{447A413B-B655-4E5D-BC02-D7557A9E4C62}" name="Parameter [library strategy]"/>
     <tableColumn id="4" xr3:uid="{9BBFE835-D0D7-4C6D-A1A5-68598432EDA2}" name="Term Source REF (DPBO:0000035)"/>
     <tableColumn id="5" xr3:uid="{657A280A-234C-47CD-8764-45FAAED69AFE}" name="Term Accession Number (DPBO:0000035)"/>
@@ -891,37 +816,37 @@
     <tableColumn id="10" xr3:uid="{850436C7-EF51-438E-BD88-B6C3F87D03C4}" name="Term Source REF (DPBO:0000015)"/>
     <tableColumn id="11" xr3:uid="{FAFC50DF-492A-4289-ABF2-9AE1FFD89B22}" name="Term Accession Number (DPBO:0000015)"/>
     <tableColumn id="47" xr3:uid="{920D070C-17EA-F447-BF76-CF830545AC7E}" name="Parameter [library preparation kit]"/>
-    <tableColumn id="48" xr3:uid="{B9AEAD85-975B-144B-B161-C0D9630261E7}" name="Term Source REF (GENEPIO:0000085)" dataDxfId="11"/>
-    <tableColumn id="49" xr3:uid="{31339FBA-31FC-4440-BF51-2BBBE2FB801F}" name="Term Accession Number (GENEPIO:0000085)" dataDxfId="10"/>
-    <tableColumn id="53" xr3:uid="{596B8FEA-F56E-4645-AB6B-2974E91BFED7}" name="Parameter [library preparation kit version]" dataDxfId="9"/>
-    <tableColumn id="54" xr3:uid="{D06F8A0C-F6C5-D44E-935A-9B0D952ACFD4}" name="Term Source REF (GENEPIO:0000149)" dataDxfId="8"/>
-    <tableColumn id="55" xr3:uid="{9816CF2C-1A41-284F-BA62-C599F9DA9A2F}" name="Term Accession Number (GENEPIO:0000149)" dataDxfId="7"/>
-    <tableColumn id="56" xr3:uid="{3E2585AB-F6D2-5E45-9CD6-D691A73668B5}" name="Parameter [adapter sequence]" dataDxfId="6"/>
-    <tableColumn id="57" xr3:uid="{FF5E6A02-E9B3-2A44-94CE-E624DC8B1CD6}" name="Term Source REF (GENEPIO:0000083)" dataDxfId="5"/>
-    <tableColumn id="58" xr3:uid="{65B8113C-FF30-F749-9700-81A10583D721}" name="Term Accession Number (GENEPIO:0000083)" dataDxfId="4"/>
-    <tableColumn id="59" xr3:uid="{DB9284E0-51FE-E14D-AFC3-5BD86181DAC5}" name="Parameter [library RNA amount]" dataDxfId="3"/>
-    <tableColumn id="60" xr3:uid="{131C1113-732D-2246-BD34-B02A003A2AD3}" name="Unit" dataDxfId="2"/>
-    <tableColumn id="61" xr3:uid="{ECC03E79-ECEC-4F4C-99C8-0007FFF00391}" name="Term Source REF (DPBO:0000016)" dataDxfId="1"/>
-    <tableColumn id="62" xr3:uid="{DCB2E447-920B-024B-9B3A-796E8594FE82}" name="Term Accession Number (DPBO:0000016)" dataDxfId="0"/>
-    <tableColumn id="28" xr3:uid="{9C794364-C911-4D05-A9A8-DFDE330A09C2}" name="Parameter [next generation sequencing instrument model]" dataDxfId="33"/>
-    <tableColumn id="29" xr3:uid="{AE615784-B0E6-47BF-AE01-023BF5AA206E}" name="Term Source REF (DPBO:0000040)" dataDxfId="32"/>
-    <tableColumn id="30" xr3:uid="{BAD8DB17-65F5-45BD-A7AA-6B024B5CE069}" name="Term Accession Number (DPBO:0000040)" dataDxfId="31"/>
-    <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [base-calling software]" dataDxfId="30"/>
-    <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (DPBO:0000017)" dataDxfId="29"/>
-    <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (DPBO:0000017)" dataDxfId="28"/>
-    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [base-calling software version]" dataDxfId="27"/>
-    <tableColumn id="51" xr3:uid="{9873F5F5-4534-4DF9-B18C-69858B28E021}" name="Term Source REF (DPBO:0000018)" dataDxfId="26"/>
-    <tableColumn id="52" xr3:uid="{E50595D3-C218-4183-8EC4-0B001A8697BD}" name="Term Accession Number (DPBO:0000018)" dataDxfId="25"/>
-    <tableColumn id="34" xr3:uid="{228D9D5B-B4BB-432B-8766-144F2F7EE00C}" name="Parameter [base-calling software parameters]" dataDxfId="24"/>
-    <tableColumn id="35" xr3:uid="{EE5985B1-BFA8-4880-80F1-BBC5E373AEA4}" name="Term Source REF (DPBO:0000019)" dataDxfId="23"/>
-    <tableColumn id="36" xr3:uid="{5957DE4F-4101-47BD-A1D2-8A8C3805387F}" name="Term Accession Number (DPBO:0000019)" dataDxfId="22"/>
-    <tableColumn id="37" xr3:uid="{4A320B98-D8B0-4EDC-B8A1-FC383E287715}" name="Parameter [library strand]" dataDxfId="21"/>
-    <tableColumn id="38" xr3:uid="{7F1459B7-C0FC-4A4F-8689-0ECFAC987DAE}" name="Term Source REF (DPBO:0000020)" dataDxfId="20"/>
-    <tableColumn id="39" xr3:uid="{962B06C3-A58B-4E1F-BB1E-C42413A846FB}" name="Term Accession Number (DPBO:0000020)" dataDxfId="19"/>
-    <tableColumn id="40" xr3:uid="{2AFADBEA-D2CA-4459-8C9D-3DC3FA4E226B}" name="Parameter [Raw data file format]" dataDxfId="18"/>
-    <tableColumn id="41" xr3:uid="{CC4AA291-442E-477D-A16A-36D7D1CB0B50}" name="Term Source REF (DPBO:0000021)" dataDxfId="17"/>
-    <tableColumn id="42" xr3:uid="{E3E37F73-63D0-4BEE-A350-CE87A85AB65F}" name="Term Accession Number (DPBO:0000021)" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{47A34C5D-CBA3-4D67-95F8-EF106ACCAA38}" name="Raw Data File" dataDxfId="15"/>
+    <tableColumn id="48" xr3:uid="{B9AEAD85-975B-144B-B161-C0D9630261E7}" name="Term Source REF (GENEPIO:0000085)" dataDxfId="30"/>
+    <tableColumn id="49" xr3:uid="{31339FBA-31FC-4440-BF51-2BBBE2FB801F}" name="Term Accession Number (GENEPIO:0000085)" dataDxfId="29"/>
+    <tableColumn id="53" xr3:uid="{596B8FEA-F56E-4645-AB6B-2974E91BFED7}" name="Parameter [library preparation kit version]" dataDxfId="28"/>
+    <tableColumn id="54" xr3:uid="{D06F8A0C-F6C5-D44E-935A-9B0D952ACFD4}" name="Term Source REF (GENEPIO:0000149)" dataDxfId="27"/>
+    <tableColumn id="55" xr3:uid="{9816CF2C-1A41-284F-BA62-C599F9DA9A2F}" name="Term Accession Number (GENEPIO:0000149)" dataDxfId="26"/>
+    <tableColumn id="56" xr3:uid="{3E2585AB-F6D2-5E45-9CD6-D691A73668B5}" name="Parameter [adapter sequence]" dataDxfId="25"/>
+    <tableColumn id="57" xr3:uid="{FF5E6A02-E9B3-2A44-94CE-E624DC8B1CD6}" name="Term Source REF (GENEPIO:0000083)" dataDxfId="24"/>
+    <tableColumn id="58" xr3:uid="{65B8113C-FF30-F749-9700-81A10583D721}" name="Term Accession Number (GENEPIO:0000083)" dataDxfId="23"/>
+    <tableColumn id="59" xr3:uid="{DB9284E0-51FE-E14D-AFC3-5BD86181DAC5}" name="Parameter [library RNA amount]" dataDxfId="22"/>
+    <tableColumn id="60" xr3:uid="{131C1113-732D-2246-BD34-B02A003A2AD3}" name="Unit" dataDxfId="21"/>
+    <tableColumn id="61" xr3:uid="{ECC03E79-ECEC-4F4C-99C8-0007FFF00391}" name="Term Source REF (DPBO:0000016)" dataDxfId="20"/>
+    <tableColumn id="62" xr3:uid="{DCB2E447-920B-024B-9B3A-796E8594FE82}" name="Term Accession Number (DPBO:0000016)" dataDxfId="19"/>
+    <tableColumn id="28" xr3:uid="{9C794364-C911-4D05-A9A8-DFDE330A09C2}" name="Parameter [next generation sequencing instrument model]" dataDxfId="18"/>
+    <tableColumn id="29" xr3:uid="{AE615784-B0E6-47BF-AE01-023BF5AA206E}" name="Term Source REF (DPBO:0000040)" dataDxfId="17"/>
+    <tableColumn id="30" xr3:uid="{BAD8DB17-65F5-45BD-A7AA-6B024B5CE069}" name="Term Accession Number (DPBO:0000040)" dataDxfId="16"/>
+    <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [base-calling software]" dataDxfId="15"/>
+    <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (DPBO:0000017)" dataDxfId="14"/>
+    <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (DPBO:0000017)" dataDxfId="13"/>
+    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [base-calling software version]" dataDxfId="12"/>
+    <tableColumn id="51" xr3:uid="{9873F5F5-4534-4DF9-B18C-69858B28E021}" name="Term Source REF (DPBO:0000018)" dataDxfId="11"/>
+    <tableColumn id="52" xr3:uid="{E50595D3-C218-4183-8EC4-0B001A8697BD}" name="Term Accession Number (DPBO:0000018)" dataDxfId="10"/>
+    <tableColumn id="34" xr3:uid="{228D9D5B-B4BB-432B-8766-144F2F7EE00C}" name="Parameter [base-calling software parameters]" dataDxfId="9"/>
+    <tableColumn id="35" xr3:uid="{EE5985B1-BFA8-4880-80F1-BBC5E373AEA4}" name="Term Source REF (DPBO:0000019)" dataDxfId="8"/>
+    <tableColumn id="36" xr3:uid="{5957DE4F-4101-47BD-A1D2-8A8C3805387F}" name="Term Accession Number (DPBO:0000019)" dataDxfId="7"/>
+    <tableColumn id="37" xr3:uid="{4A320B98-D8B0-4EDC-B8A1-FC383E287715}" name="Parameter [library strand]" dataDxfId="6"/>
+    <tableColumn id="38" xr3:uid="{7F1459B7-C0FC-4A4F-8689-0ECFAC987DAE}" name="Term Source REF (DPBO:0000020)" dataDxfId="5"/>
+    <tableColumn id="39" xr3:uid="{962B06C3-A58B-4E1F-BB1E-C42413A846FB}" name="Term Accession Number (DPBO:0000020)" dataDxfId="4"/>
+    <tableColumn id="40" xr3:uid="{2AFADBEA-D2CA-4459-8C9D-3DC3FA4E226B}" name="Parameter [Raw data file format]" dataDxfId="3"/>
+    <tableColumn id="41" xr3:uid="{CC4AA291-442E-477D-A16A-36D7D1CB0B50}" name="Term Source REF (DPBO:0000021)" dataDxfId="2"/>
+    <tableColumn id="42" xr3:uid="{E3E37F73-63D0-4BEE-A350-CE87A85AB65F}" name="Term Accession Number (DPBO:0000021)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{47A34C5D-CBA3-4D67-95F8-EF106ACCAA38}" name="Raw Data File" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1258,64 +1183,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.1640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.33203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="38.5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="38.5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.33203125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="38.5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="28.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" customWidth="1"/>
-    <col min="26" max="26" width="30" customWidth="1"/>
-    <col min="27" max="27" width="36.1640625" customWidth="1"/>
-    <col min="28" max="28" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="39.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="24.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="29.1640625" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="13.83203125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="29.1640625" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.1640625" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="13.83203125" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.28515625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="38.42578125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="38.42578125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.28515625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="38.42578125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="32.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="30" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="36.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="34" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="39.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="24.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="45" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="33" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="29.140625" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>66</v>
       </c>
@@ -1580,7 +1503,7 @@
       </c>
       <c r="AT2" s="12"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
@@ -1685,7 +1608,7 @@
       </c>
       <c r="AT3" s="12"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
         <v>35</v>
@@ -1775,7 +1698,7 @@
       <c r="AS4" s="1"/>
       <c r="AT4" s="12"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
         <v>35</v>
@@ -1850,7 +1773,7 @@
       <c r="AS5" s="1"/>
       <c r="AT5" s="12"/>
     </row>
-    <row r="23" spans="27:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA23" s="13"/>
     </row>
   </sheetData>
@@ -1867,16 +1790,16 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D14"/>
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1884,7 +1807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1892,7 +1815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1823,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1908,7 +1831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1916,7 +1839,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1924,7 +1847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1933,34 +1856,40 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +1898,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1986,7 +1915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2001,7 +1930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -2016,7 +1945,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2025,7 +1954,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -2038,7 +1967,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2051,7 +1980,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -2060,7 +1989,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -2069,7 +1998,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -2078,7 +2007,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -2087,7 +2016,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -2096,7 +2025,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -2105,7 +2034,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
@@ -2114,7 +2043,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -2123,7 +2052,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -2132,7 +2061,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>

--- a/templates/dataplant/3ASY01_RNASeq.xlsx
+++ b/templates/dataplant/3ASY01_RNASeq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D2E7A6-AA06-4D0C-A7A0-A00D1ED4B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC01B5E-D25D-1542-B01F-FCF85E1D1610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_assay" sheetId="1" r:id="rId1"/>
@@ -48,76 +48,157 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9BDCD857-0DD1-430B-81A9-59C269F09A66}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=9a78e1cc-5e8e-441b-9b7e-eb41cf93d574</t>
+        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{BA1407FF-1AE2-4F10-BB9A-CE1EA4574C1B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{CFF29937-1F15-4587-9907-A16ECB06ACCE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{1B1ECE66-3701-49EC-B5A3-539F78E15555}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{102B2B78-2611-433C-9D0A-944782E9A547}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{4F2A56C7-F993-4F56-920E-B56655DBF461}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A21277F1-8784-42A1-B932-D4F422009DB7}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{1423E286-502D-468D-9CC0-906670F651F2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{18F1699E-690B-4D1C-91D1-AE306CE5FCAF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -125,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="116">
   <si>
     <t>Source Name</t>
   </si>
@@ -332,9 +413,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/DPBO_1000177</t>
-  </si>
-  <si>
-    <t>rnaseq-protocol.txt</t>
   </si>
   <si>
     <t>RNA-seq</t>
@@ -1183,62 +1261,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.28515625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="32.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="31.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="38.5" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.33203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="38.5" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="32.5" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="30" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="36.140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="34" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="39.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="24.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="39.6640625" style="12" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="24.33203125" style="12" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="45" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="29.140625" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="29.1640625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.83203125" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="33" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="29.140625" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="29.1640625" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="13.83203125" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1255,142 +1335,134 @@
         <v>65</v>
       </c>
       <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
         <v>99</v>
       </c>
-      <c r="M1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" t="s">
         <v>100</v>
       </c>
-      <c r="P1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>104</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" t="s">
         <v>101</v>
       </c>
-      <c r="S1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>106</v>
       </c>
-      <c r="U1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>107</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>108</v>
-      </c>
-      <c r="X1" t="s">
-        <v>109</v>
       </c>
       <c r="Y1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC1" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AF1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>85</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AJ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>87</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AM1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN1" t="s">
         <v>113</v>
       </c>
-      <c r="AL1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>89</v>
       </c>
-      <c r="AN1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>90</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>91</v>
       </c>
       <c r="AQ1" t="s">
         <v>2</v>
       </c>
       <c r="AR1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS1" t="s">
         <v>92</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>93</v>
       </c>
       <c r="AT1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>69</v>
-      </c>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" t="s">
         <v>37</v>
       </c>
@@ -1416,7 +1488,7 @@
         <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12" t="s">
@@ -1503,17 +1575,11 @@
       </c>
       <c r="AT2" s="12"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="F3" t="s">
         <v>38</v>
       </c>
@@ -1608,17 +1674,11 @@
       </c>
       <c r="AT3" s="12"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" t="s">
         <v>39</v>
       </c>
@@ -1626,7 +1686,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
@@ -1698,17 +1758,11 @@
       <c r="AS4" s="1"/>
       <c r="AT4" s="12"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="I5" t="s">
         <v>43</v>
       </c>
@@ -1716,7 +1770,7 @@
         <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12" t="s">
@@ -1773,7 +1827,7 @@
       <c r="AS5" s="1"/>
       <c r="AT5" s="12"/>
     </row>
-    <row r="23" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA23" s="13"/>
     </row>
   </sheetData>
@@ -1793,13 +1847,13 @@
       <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1807,7 +1861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1877,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1831,7 +1885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1839,7 +1893,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1847,7 +1901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1856,29 +1910,29 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1889,7 +1943,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1898,7 +1952,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1909,33 +1963,33 @@
         <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
@@ -1945,7 +1999,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1954,7 +2008,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1967,7 +2021,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1980,7 +2034,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1989,7 +2043,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1998,7 +2052,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -2007,7 +2061,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -2016,7 +2070,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -2025,7 +2079,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -2034,7 +2088,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
@@ -2043,7 +2097,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -2052,7 +2106,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -2061,7 +2115,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>

--- a/templates/dataplant/3ASY01_RNASeq.xlsx
+++ b/templates/dataplant/3ASY01_RNASeq.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC01B5E-D25D-1542-B01F-FCF85E1D1610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73A226F-F19F-40DA-BE60-D47B46F7AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_assay" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,157 +48,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9BDCD857-0DD1-430B-81A9-59C269F09A66}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=9a78e1cc-5e8e-441b-9b7e-eb41cf93d574</t>
-        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{BA1407FF-1AE2-4F10-BB9A-CE1EA4574C1B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{CFF29937-1F15-4587-9907-A16ECB06ACCE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{1B1ECE66-3701-49EC-B5A3-539F78E15555}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{102B2B78-2611-433C-9D0A-944782E9A547}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{4F2A56C7-F993-4F56-920E-B56655DBF461}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A21277F1-8784-42A1-B932-D4F422009DB7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{1423E286-502D-468D-9CC0-906670F651F2}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{18F1699E-690B-4D1C-91D1-AE306CE5FCAF}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -206,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="114">
   <si>
     <t>Source Name</t>
   </si>
@@ -548,12 +467,6 @@
   </si>
   <si>
     <t>Parameter [library strand]</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000096</t>
   </si>
 </sst>
 </file>
@@ -749,8 +662,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{3A68927A-4D0F-438E-A11A-69BC80D82D4C}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -1261,40 +1174,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.1640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32.33203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="38.5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="38.44140625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="32.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="38.5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.44140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="32.33203125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="38.5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="32.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.44140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="32.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="30" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="57.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="34" bestFit="1" customWidth="1"/>
@@ -1305,20 +1218,20 @@
     <col min="36" max="36" width="24.33203125" style="12" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="45" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="29.1640625" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.109375" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="13.83203125" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.77734375" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="33" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="29.1640625" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.1640625" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="13.83203125" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="29.109375" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="13.77734375" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1371,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -1575,7 +1488,7 @@
       </c>
       <c r="AT2" s="12"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1674,7 +1587,7 @@
       </c>
       <c r="AT3" s="12"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -1758,7 +1671,7 @@
       <c r="AS4" s="1"/>
       <c r="AT4" s="12"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1827,7 +1740,7 @@
       <c r="AS5" s="1"/>
       <c r="AT5" s="12"/>
     </row>
-    <row r="23" spans="27:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA23" s="13"/>
     </row>
   </sheetData>
@@ -1843,17 +1756,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCFAEC7-2CE0-4201-B33B-152C0680AE1F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1861,7 +1774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1869,7 +1782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1877,7 +1790,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1885,7 +1798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +1806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1901,7 +1814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1910,40 +1823,34 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1952,7 +1859,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1969,7 +1876,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1984,7 +1891,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1999,7 +1906,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +1915,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -2021,7 +1928,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2034,7 +1941,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -2043,7 +1950,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -2052,7 +1959,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -2061,7 +1968,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -2070,7 +1977,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -2079,7 +1986,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -2088,7 +1995,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
@@ -2097,7 +2004,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -2106,7 +2013,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -2115,7 +2022,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
